--- a/data/pravno/zakoni/Kazneni-zakon.pdf.hwaifs/tables/py/gmft/df.tables-3.xlsx
+++ b/data/pravno/zakoni/Kazneni-zakon.pdf.hwaifs/tables/py/gmft/df.tables-3.xlsx
@@ -453,12 +453,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>(1) Kazneno zakonodavstvo Republike Hrvatske su odredbe sadržane u ovom drugim zakonima Republike Hrvatske, kojima se određuju pretpostavke kažnjivosti i koje se mogu izreći počiniteljima kaznenih djela.</t>
+          <t>(1) Kazneno zakonodavstvo Republike Hrvatske su odredbe sadržane u ovom drugim zakonima Republike Hrvatske, kojima se određuju pretpostavke kažnjivosti koje se mogu izreći počiniteljima kaznenih djela.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Zakonu i sankcije</t>
+          <t>Zakonu i i sankcije</t>
         </is>
       </c>
     </row>
@@ -524,12 +524,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>(5) Kad je službena osoba naznačena kao počinitelj kaznenog djela koje nije Glavi XXXIV. ovoga Zakona, ili kao osoba prema kojoj je počinjeno kazneno djelo, službenom osobom smatrat će se i vojna osoba.</t>
+          <t>(5) Kad je službena osoba naznačena kao počinitelj kaznenog djela koje nije Glavi XXXIV. ovoga Zakona, ili kao osoba prema kojoj je počinjeno kazneno službenom osobom smatrat će se i vojna osoba.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>predviđeno u</t>
+          <t>predviđeno u djelo,</t>
         </is>
       </c>
     </row>
@@ -565,12 +565,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>(8) Članovi obitelji su bračni ili izvanbračni drug, životni partner ili neformalni partner, njihova zajednička djeca te djeca svakog od njih, srodnik po krvi u ravnoj srodnik u pobočnoj lozi zaključno do trećeg stupnja, srodnici po tazbini do zaključno stupnja, posvojitelj i posvojenik.</t>
+          <t>(8) Članovi obitelji su bračni ili izvanbračni drug, životni partner ili neformalni partner, njihova zajednička djeca te djeca svakog od njih, srodnik po krvi u ravnoj srodnik u pobočnoj lozi zaključno do trećeg stupnja, srodnici po tazbini do stupnja, posvojitelj i posvojenik.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>životni lozi, drugog</t>
+          <t>životni lozi, zaključno drugog</t>
         </is>
       </c>
     </row>
